--- a/Reports/Graph_Sprint_Data/UI_INTERVIEW_SLOT_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_INTERVIEW_SLOT_HISTORY_DATA.xlsx
@@ -915,7 +915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1285,30 +1285,57 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>45484.80724003832</v>
-      </c>
-      <c r="C14" t="inlineStr">
+        <v>45484.80724003472</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>193rrets</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="6" t="n">
         <v>2.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>45485.54903610863</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>193interviewslot</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_INTERVIEW_SLOT_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_INTERVIEW_SLOT_HISTORY_DATA.xlsx
@@ -367,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
@@ -626,6 +626,87 @@
       </c>
       <c r="G9" s="6" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>45489.62412090278</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>45490.74208716436</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>194scncycle</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>45491.34826207176</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
@@ -900,6 +981,60 @@
       </c>
       <c r="G9" s="6" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>45491.63708577547</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>45491.70689720486</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>
@@ -1312,29 +1447,29 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>45485.54903610863</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>45485.54903611111</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>193interviewslot</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="6" t="n">
         <v>1.07</v>
       </c>
     </row>
